--- a/Templates/Partlist.xlsx
+++ b/Templates/Partlist.xlsx
@@ -88,7 +88,7 @@
     <x:t>ComponetItem</x:t>
   </x:si>
   <x:si>
-    <x:t>Akkku 3300mAh</x:t>
+    <x:t>Akku-3300mAh</x:t>
   </x:si>
   <x:si>
     <x:t>Contoller PCB</x:t>
@@ -112,7 +112,7 @@
     <x:t>Akku 5200mAh</x:t>
   </x:si>
   <x:si>
-    <x:t>Akkku 5200mAh</x:t>
+    <x:t>Akku-5200mAh</x:t>
   </x:si>
   <x:si>
     <x:t>Akku 5200mAh Battery Pack</x:t>
@@ -127,6 +127,63 @@
     <x:t>Arduino Controller Board</x:t>
   </x:si>
   <x:si>
+    <x:t>Bottom_Plate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Part</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BottomPlate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Basplate Pexi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Basis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lower Coverplate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RC-34-2321.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JointType: Fixed,  (XYZ) [0.00, 0.00, -30.00][mm], (RPY) [0.00, 0.00, 0.00][grad], (BOX) [L:300, W:140, H:2]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>transp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bodenPlatte_solid.stl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CenterPlate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MainFrame</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CenterPlate Alu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Base for System</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RC-34-2321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JointType: Fixed,  (XYZ) [0.00, 0.00, 30.00][mm], (RPY) [0.00, 0.00, 0.00][grad], (BOX) [L:300, W:140, H:6]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BasePlate.stl</x:t>
+  </x:si>
+  <x:si>
     <x:t>Controller</x:t>
   </x:si>
   <x:si>
@@ -166,12 +223,6 @@
     <x:t>Base for Battery and Controller</x:t>
   </x:si>
   <x:si>
-    <x:t>Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grey</x:t>
-  </x:si>
-  <x:si>
     <x:t>Sensorbox_small_arduino_64.stl</x:t>
   </x:si>
   <x:si>
@@ -190,9 +241,6 @@
     <x:t>Base for Stepper Motor as 3D Printed Parf</x:t>
   </x:si>
   <x:si>
-    <x:t>RC-34-2321</x:t>
-  </x:si>
-  <x:si>
     <x:t>DC_Holder_64.stl</x:t>
   </x:si>
   <x:si>
@@ -205,9 +253,6 @@
     <x:t>Complete DC-Motor for Drive System</x:t>
   </x:si>
   <x:si>
-    <x:t>RC-34-2321.5</x:t>
-  </x:si>
-  <x:si>
     <x:t>dc.stl</x:t>
   </x:si>
   <x:si>
@@ -343,7 +388,7 @@
     <x:t>Lopkalisierung für Sensorbox center</x:t>
   </x:si>
   <x:si>
-    <x:t>JointType: Fixed,  (XYZ) [0.00, -70.00, 0.00][mm], (RPY) [0.00, 0.00, 180.00][grad], (BOX) [L:40, W:210, H:64]</x:t>
+    <x:t>JointType: Fixed,  (XYZ) [0.00, -70.00, 0.00][mm], (RPY) [0.00, 0.00, 180.00][grad], (BOX) [L:94, W:40, H:64]</x:t>
   </x:si>
   <x:si>
     <x:t>Sensorbox controller</x:t>
@@ -352,37 +397,7 @@
     <x:t>Lopkalisierung für Sensorbox Controller on the right</x:t>
   </x:si>
   <x:si>
-    <x:t>JointType: Fixed,  (XYZ) [0.00, 70.00, 0.00][mm], (RPY) [0.00, 0.00, 0.00][grad], (BOX) [L:40, W:210, H:64]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CenterPlate Alu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Basis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Base for System</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JointType: Fixed,  (XYZ) [0.00, 0.00, 30.00][mm], (RPY) [0.00, 0.00, 0.00][grad], (BOX) [L:300, W:140, H:6]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BasePlate.stl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Basplate Pexi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lower Coverplate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JointType: Fixed,  (XYZ) [0.00, 0.00, -30.00][mm], (RPY) [0.00, 0.00, 0.00][grad], (BOX) [L:300, W:140, H:2]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>transp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bodenPlatte_solid.stl</x:t>
+    <x:t>JointType: Fixed,  (XYZ) [0.00, 70.00, 0.00][mm], (RPY) [0.00, 0.00, 0.00][grad], (BOX) [L:94, W:40, H:64]</x:t>
   </x:si>
   <x:si>
     <x:t>LED-Light</x:t>
@@ -457,9 +472,6 @@
     <x:t>Line-Follower</x:t>
   </x:si>
   <x:si>
-    <x:t>MainFrame</x:t>
-  </x:si>
-  <x:si>
     <x:t>Screws</x:t>
   </x:si>
   <x:si>
@@ -470,6 +482,12 @@
   </x:si>
   <x:si>
     <x:t>MainSwitch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main Switch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mainswitch for Akku</x:t>
   </x:si>
   <x:si>
     <x:t>Mecanum-Wheel</x:t>
@@ -938,8 +956,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="PartListTable" displayName="PartListTable" ref="A4:W111" totalsRowShown="0">
-  <x:autoFilter ref="A4:W111"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="PartListTable" displayName="PartListTable" ref="A4:W114" totalsRowShown="0">
+  <x:autoFilter ref="A4:W114"/>
   <x:tableColumns count="23">
     <x:tableColumn id="1" name="LEVEL"/>
     <x:tableColumn id="2" name="Name"/>
@@ -1257,7 +1275,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:W111"/>
+  <x:dimension ref="A1:W114"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1342,10 +1360,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="S4" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="T4" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="U4" s="0" t="s">
         <x:v>18</x:v>
@@ -1514,14 +1532,11 @@
       <x:c r="C11" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="U11" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="V11" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:23">
@@ -1537,17 +1552,32 @@
       <x:c r="D12" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="G12" s="0">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="P12" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
       <x:c r="Q12" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="U12" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V12" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="W12" s="0" t="s">
         <x:v>37</x:v>
@@ -1555,31 +1585,19 @@
     </x:row>
     <x:row r="13" spans="1:23">
       <x:c r="A13" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G13" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="U13" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="V13" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="W13" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:23">
@@ -1587,40 +1605,43 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G14" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P14" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="Q14" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="U14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="V14" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="G14" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M14" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P14" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="Q14" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="U14" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="V14" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="W14" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:23">
@@ -1628,19 +1649,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="U15" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="V15" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:23">
@@ -1648,43 +1669,28 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G16" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q16" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="U16" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="V16" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G16" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M16" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P16" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="Q16" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="U16" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="V16" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
       <x:c r="W16" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:23">
@@ -1692,43 +1698,28 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G17" s="0">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M17" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P17" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="Q17" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="U17" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V17" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="W17" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:23">
@@ -1736,10 +1727,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G18" s="0">
         <x:v>0</x:v>
@@ -1748,13 +1742,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M18" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P18" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="Q18" s="0" t="s">
         <x:v>30</x:v>
@@ -1763,10 +1757,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V18" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="W18" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:23">
@@ -1774,19 +1768,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U19" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="V19" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:23">
@@ -1794,16 +1788,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G20" s="0">
         <x:v>0</x:v>
@@ -1812,13 +1806,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M20" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P20" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="Q20" s="0" t="s">
         <x:v>30</x:v>
@@ -1827,10 +1821,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V20" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W20" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:23">
@@ -1838,16 +1832,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G21" s="0">
         <x:v>0</x:v>
@@ -1856,13 +1850,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M21" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P21" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="Q21" s="0" t="s">
         <x:v>30</x:v>
@@ -1871,10 +1865,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V21" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W21" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:23">
@@ -1882,31 +1876,25 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G22" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M22" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P22" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="Q22" s="0" t="s">
         <x:v>30</x:v>
@@ -1915,10 +1903,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V22" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W22" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:23">
@@ -1926,16 +1914,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U23" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="V23" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:23">
@@ -1943,19 +1934,31 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G24" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
         <x:v>29</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M24" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P24" s="0" t="s">
+        <x:v>84</x:v>
       </x:c>
       <x:c r="Q24" s="0" t="s">
         <x:v>30</x:v>
@@ -1964,27 +1967,54 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V24" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="W24" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:23">
       <x:c r="A25" s="0">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G25" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P25" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q25" s="0" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U25" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V25" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="W25" s="0" t="s">
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:23">
@@ -1992,19 +2022,31 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G26" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P26" s="0" t="s">
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q26" s="0" t="s">
         <x:v>30</x:v>
@@ -2013,10 +2055,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V26" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="W26" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:23">
@@ -2024,16 +2066,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="U27" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="V27" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:23">
@@ -2041,13 +2083,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G28" s="0">
         <x:v>0</x:v>
@@ -2062,88 +2104,76 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V28" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="W28" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:23">
       <x:c r="A29" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G29" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="Q29" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="U29" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="V29" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="W29" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:23">
       <x:c r="A30" s="0">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G30" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Q30" s="0" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U30" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V30" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="W30" s="0" t="s">
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:23">
       <x:c r="A31" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="G31" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q31" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U31" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="V31" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="W31" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:23">
@@ -2151,28 +2181,31 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G32" s="0">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="Q32" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U32" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V32" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="W32" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:23">
@@ -2180,57 +2213,48 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G33" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Q33" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="U33" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="V33" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="G33" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q33" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="U33" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="V33" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="W33" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:23">
       <x:c r="A34" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="G34" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q34" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="U34" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="V34" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="W34" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:23">
@@ -2238,28 +2262,28 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G35" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q35" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="U35" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="V35" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="U35" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="V35" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="W35" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:23">
@@ -2267,28 +2291,28 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G36" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q36" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="U36" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V36" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="W36" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:23">
@@ -2296,28 +2320,28 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G37" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q37" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="U37" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V37" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="W37" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:23">
@@ -2325,28 +2349,28 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G38" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q38" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="U38" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V38" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="W38" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:23">
@@ -2354,43 +2378,28 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E39" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G39" s="0">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I39" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M39" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P39" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
       <x:c r="Q39" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="U39" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V39" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="W39" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:23">
@@ -2398,63 +2407,57 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E40" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G40" s="0">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H40" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I40" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M40" s="0" t="s">
+      <x:c r="Q40" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="P40" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="Q40" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
       <x:c r="U40" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V40" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="W40" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:23">
       <x:c r="A41" s="0">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="C41" s="0" t="s">
+      <x:c r="G41" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q41" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D41" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="U41" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V41" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="W41" s="0" t="s">
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:23">
@@ -2465,7 +2468,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
         <x:v>126</x:v>
@@ -2473,29 +2476,17 @@
       <x:c r="G42" s="0">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H42" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I42" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M42" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P42" s="0" t="s">
+      <x:c r="Q42" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="Q42" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="U42" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V42" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="W42" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:23">
@@ -2503,13 +2494,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G43" s="0">
         <x:v>0</x:v>
@@ -2518,25 +2512,25 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M43" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P43" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="Q43" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="U43" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V43" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="W43" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:23">
@@ -2544,13 +2538,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G44" s="0">
         <x:v>0</x:v>
@@ -2559,25 +2556,25 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P44" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="Q44" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="U44" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V44" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="W44" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:23">
@@ -2585,19 +2582,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U45" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="V45" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:23">
@@ -2605,16 +2602,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E46" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G46" s="0">
         <x:v>0</x:v>
@@ -2623,13 +2617,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M46" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P46" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="Q46" s="0" t="s">
         <x:v>30</x:v>
@@ -2638,10 +2632,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V46" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="W46" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:23">
@@ -2649,16 +2643,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E47" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G47" s="0">
         <x:v>0</x:v>
@@ -2667,25 +2658,25 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M47" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P47" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="Q47" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="U47" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V47" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="W47" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:23">
@@ -2693,16 +2684,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E48" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G48" s="0">
         <x:v>0</x:v>
@@ -2711,25 +2699,25 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M48" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P48" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="Q48" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="U48" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V48" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="W48" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:23">
@@ -2737,36 +2725,63 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U49" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="V49" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:23">
       <x:c r="A50" s="0">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G50" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M50" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P50" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="Q50" s="0" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U50" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V50" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="W50" s="0" t="s">
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:23">
@@ -2774,16 +2789,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G51" s="0">
         <x:v>0</x:v>
@@ -2792,25 +2807,25 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="Q51" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="U51" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V51" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="W51" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:23">
@@ -2818,16 +2833,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G52" s="0">
         <x:v>0</x:v>
@@ -2836,57 +2851,42 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="Q52" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="U52" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V52" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="W52" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:23">
       <x:c r="A53" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="E53" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G53" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H53" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="Q53" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="U53" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="V53" s="0" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="W53" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:23">
@@ -2894,16 +2894,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>58</x:v>
       </x:c>
       <x:c r="U54" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="V54" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:23">
@@ -2911,19 +2914,31 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G55" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
         <x:v>29</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M55" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P55" s="0" t="s">
+        <x:v>55</x:v>
       </x:c>
       <x:c r="Q55" s="0" t="s">
         <x:v>30</x:v>
@@ -2932,10 +2947,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V55" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="W55" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:23">
@@ -2943,16 +2958,31 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G56" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
         <x:v>29</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M56" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="P56" s="0" t="s">
+        <x:v>55</x:v>
       </x:c>
       <x:c r="Q56" s="0" t="s">
         <x:v>30</x:v>
@@ -2961,15 +2991,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V56" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="W56" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:23">
       <x:c r="A57" s="0">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>152</x:v>
@@ -2977,58 +3007,43 @@
       <x:c r="C57" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="D57" s="0" t="s">
+      <x:c r="E57" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G57" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
+      <x:c r="Q57" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
       <x:c r="U57" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V57" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="W57" s="0" t="s">
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:23">
       <x:c r="A58" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="U58" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="V58" s="0" t="s">
         <x:v>155</x:v>
-      </x:c>
-      <x:c r="C58" s="0" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="D58" s="0" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="E58" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G58" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H58" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I58" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M58" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P58" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="Q58" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="U58" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="V58" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="W58" s="0" t="s">
-        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:23">
@@ -3036,16 +3051,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="E59" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G59" s="0">
         <x:v>0</x:v>
@@ -3053,70 +3065,37 @@
       <x:c r="H59" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="I59" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M59" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P59" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
       <x:c r="Q59" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U59" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V59" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="W59" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:23">
       <x:c r="A60" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="E60" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G60" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H60" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I60" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M60" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P60" s="0" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="Q60" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="U60" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="V60" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="W60" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:23">
@@ -3124,16 +3103,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G61" s="0">
         <x:v>0</x:v>
@@ -3142,25 +3121,25 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M61" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P61" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="Q61" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U61" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V61" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="W61" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:23">
@@ -3168,51 +3147,60 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G62" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M62" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P62" s="0" t="s">
+        <x:v>169</x:v>
       </x:c>
       <x:c r="Q62" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="U62" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V62" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="W62" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:23">
       <x:c r="A63" s="0">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F63" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G63" s="0">
         <x:v>0</x:v>
@@ -3221,45 +3209,42 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M63" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P63" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Q63" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="U63" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V63" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="W63" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:23">
       <x:c r="A64" s="0">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F64" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G64" s="0">
         <x:v>0</x:v>
@@ -3268,62 +3253,77 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="Q64" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="U64" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V64" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="W64" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:23">
       <x:c r="A65" s="0">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G65" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="Q65" s="0" t="s">
+        <x:v>184</x:v>
       </x:c>
       <x:c r="U65" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V65" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="W65" s="0" t="s">
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:23">
       <x:c r="A66" s="0">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="E66" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G66" s="0">
         <x:v>0</x:v>
@@ -3332,113 +3332,92 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M66" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P66" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="Q66" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="U66" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="V66" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="Q66" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="U66" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="V66" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
       <x:c r="W66" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:23">
       <x:c r="A67" s="0">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="C67" s="0" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="D67" s="0" t="s">
+      <x:c r="E67" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G67" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M67" s="0" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="E67" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G67" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H67" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I67" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M67" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="P67" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="Q67" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U67" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V67" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="W67" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:23">
       <x:c r="A68" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="E68" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G68" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H68" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I68" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M68" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P68" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="Q68" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="U68" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="V68" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="W68" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:23">
@@ -3446,16 +3425,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G69" s="0">
         <x:v>0</x:v>
@@ -3464,25 +3443,25 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M69" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P69" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="Q69" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="U69" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V69" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="W69" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:23">
@@ -3490,16 +3469,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G70" s="0">
         <x:v>0</x:v>
@@ -3508,25 +3487,25 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M70" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P70" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
       <x:c r="Q70" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="U70" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V70" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="W70" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:23">
@@ -3534,43 +3513,43 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G71" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M71" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P71" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="C71" s="0" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D71" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="E71" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G71" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H71" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I71" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M71" s="0" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="P71" s="0" t="s">
-        <x:v>173</x:v>
-      </x:c>
       <x:c r="Q71" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="U71" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V71" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="W71" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:23">
@@ -3578,63 +3557,60 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G72" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H72" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I72" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M72" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P72" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="C72" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D72" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="E72" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G72" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H72" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="I72" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M72" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="P72" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
       <x:c r="Q72" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="U72" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V72" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="W72" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:23">
       <x:c r="A73" s="0">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F73" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G73" s="0">
         <x:v>0</x:v>
@@ -3643,72 +3619,69 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I73" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M73" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P73" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="Q73" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="U73" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V73" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="W73" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:23">
       <x:c r="A74" s="0">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G74" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M74" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="P74" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
-      <x:c r="C74" s="0" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="D74" s="0" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="E74" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F74" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G74" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H74" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I74" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M74" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P74" s="0" t="s">
-        <x:v>181</x:v>
-      </x:c>
       <x:c r="Q74" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="U74" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V74" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="W74" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:23">
@@ -3716,43 +3689,43 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="C75" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D75" s="0" t="s">
+      <x:c r="E75" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G75" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
-      <x:c r="E75" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G75" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H75" s="0" t="s">
+      <x:c r="I75" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M75" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="P75" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="Q75" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="I75" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M75" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P75" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="Q75" s="0" t="s">
-        <x:v>215</x:v>
-      </x:c>
       <x:c r="U75" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V75" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="W75" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:23">
@@ -3760,19 +3733,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G76" s="0">
         <x:v>0</x:v>
@@ -3781,13 +3754,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="P76" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="Q76" s="0" t="s">
         <x:v>216</x:v>
@@ -3796,10 +3769,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V76" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="W76" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:23">
@@ -3807,19 +3780,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F77" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G77" s="0">
         <x:v>0</x:v>
@@ -3828,13 +3801,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M77" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P77" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="Q77" s="0" t="s">
         <x:v>30</x:v>
@@ -3843,44 +3816,74 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V77" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="W77" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:23">
       <x:c r="A78" s="0">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G78" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H78" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="I78" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M78" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P78" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="Q78" s="0" t="s">
+        <x:v>221</x:v>
       </x:c>
       <x:c r="U78" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V78" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="W78" s="0" t="s">
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:23">
       <x:c r="A79" s="0">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G79" s="0">
         <x:v>0</x:v>
@@ -3889,22 +3892,22 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I79" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M79" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P79" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="Q79" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="U79" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V79" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="W79" s="0" t="s">
         <x:v>218</x:v>
@@ -3912,16 +3915,22 @@
     </x:row>
     <x:row r="80" spans="1:23">
       <x:c r="A80" s="0">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G80" s="0">
         <x:v>0</x:v>
@@ -3930,22 +3939,22 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P80" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="Q80" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U80" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V80" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="W80" s="0" t="s">
         <x:v>218</x:v>
@@ -3953,43 +3962,22 @@
     </x:row>
     <x:row r="81" spans="1:23">
       <x:c r="A81" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="G81" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H81" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I81" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M81" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P81" s="0" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="Q81" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="U81" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="V81" s="0" t="s">
-        <x:v>218</x:v>
-      </x:c>
-      <x:c r="W81" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:23">
@@ -3997,13 +3985,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G82" s="0">
         <x:v>0</x:v>
@@ -4012,25 +4000,25 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I82" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M82" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P82" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="Q82" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="U82" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V82" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="W82" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:23">
@@ -4038,13 +4026,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="G83" s="0">
         <x:v>0</x:v>
@@ -4053,62 +4041,107 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M83" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P83" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="Q83" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="U83" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V83" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="W83" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:23">
       <x:c r="A84" s="0">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="G84" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H84" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I84" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M84" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P84" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
-      <x:c r="C84" s="0" t="s">
-        <x:v>235</x:v>
+      <x:c r="Q84" s="0" t="s">
+        <x:v>233</x:v>
       </x:c>
       <x:c r="U84" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V84" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="W84" s="0" t="s">
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:23">
       <x:c r="A85" s="0">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="G85" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H85" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I85" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M85" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P85" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="Q85" s="0" t="s">
+        <x:v>236</x:v>
       </x:c>
       <x:c r="U85" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V85" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="W85" s="0" t="s">
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:23">
@@ -4116,16 +4149,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E86" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="G86" s="0">
         <x:v>0</x:v>
@@ -4133,104 +4163,98 @@
       <x:c r="H86" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
+      <x:c r="I86" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M86" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="P86" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
       <x:c r="Q86" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="U86" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V86" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="W86" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:23">
       <x:c r="A87" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D87" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E87" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G87" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H87" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="Q87" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="U87" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="V87" s="0" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="W87" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:23">
       <x:c r="A88" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E88" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G88" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H88" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="Q88" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U88" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="V88" s="0" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="W88" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:23">
       <x:c r="A89" s="0">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G89" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H89" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Q89" s="0" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U89" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V89" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="W89" s="0" t="s">
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:23">
@@ -4238,28 +4262,34 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G90" s="0">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="H90" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="Q90" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U90" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V90" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="W90" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:23">
@@ -4267,69 +4297,51 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D91" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G91" s="0">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="H91" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="Q91" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U91" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V91" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="W91" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:23">
       <x:c r="A92" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="G92" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H92" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I92" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M92" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P92" s="0" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="Q92" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="U92" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="V92" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="W92" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:23">
@@ -4337,60 +4349,57 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G93" s="0">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H93" s="0" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="I93" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M93" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P93" s="0" t="s">
-        <x:v>246</x:v>
-      </x:c>
       <x:c r="Q93" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="U93" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V93" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="W93" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:23">
       <x:c r="A94" s="0">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="G94" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q94" s="0" t="s">
+        <x:v>65</x:v>
       </x:c>
       <x:c r="U94" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V94" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="W94" s="0" t="s">
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:23">
@@ -4398,28 +4407,40 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="G95" s="0">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="H95" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I95" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M95" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P95" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
       <x:c r="Q95" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U95" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V95" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="W95" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:23">
@@ -4427,57 +4448,60 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="G96" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H96" s="0" t="s">
         <x:v>251</x:v>
       </x:c>
-      <x:c r="G96" s="0">
-        <x:v>0</x:v>
+      <x:c r="I96" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M96" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P96" s="0" t="s">
+        <x:v>252</x:v>
       </x:c>
       <x:c r="Q96" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U96" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V96" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="W96" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:23">
       <x:c r="A97" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>253</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
         <x:v>254</x:v>
       </x:c>
-      <x:c r="G97" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q97" s="0" t="s">
-        <x:v>255</x:v>
-      </x:c>
       <x:c r="U97" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="V97" s="0" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="W97" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:23">
@@ -4485,28 +4509,28 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="G98" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q98" s="0" t="s">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="C98" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D98" s="0" t="s">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="G98" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q98" s="0" t="s">
-        <x:v>258</x:v>
-      </x:c>
       <x:c r="U98" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V98" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="W98" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:23">
@@ -4514,43 +4538,28 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="E99" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="G99" s="0">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H99" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I99" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M99" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P99" s="0" t="s">
-        <x:v>260</x:v>
-      </x:c>
       <x:c r="Q99" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="U99" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V99" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="W99" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:23">
@@ -4558,63 +4567,57 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="E100" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="G100" s="0">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H100" s="0" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="I100" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M100" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P100" s="0" t="s">
-        <x:v>246</x:v>
-      </x:c>
       <x:c r="Q100" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="U100" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V100" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="W100" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:23">
       <x:c r="A101" s="0">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="G101" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q101" s="0" t="s">
+        <x:v>264</x:v>
       </x:c>
       <x:c r="U101" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V101" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="W101" s="0" t="s">
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:23">
@@ -4622,16 +4625,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G102" s="0">
         <x:v>0</x:v>
@@ -4640,13 +4643,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I102" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M102" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P102" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="Q102" s="0" t="s">
         <x:v>30</x:v>
@@ -4655,10 +4658,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V102" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="W102" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:23">
@@ -4666,104 +4669,107 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E103" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G103" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H103" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="I103" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M103" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P103" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="Q103" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U103" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V103" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="W103" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:23">
       <x:c r="A104" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="E104" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G104" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H104" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I104" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M104" s="0" t="s">
-        <x:v>270</x:v>
-      </x:c>
-      <x:c r="P104" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="Q104" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U104" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="V104" s="0" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="W104" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:23">
       <x:c r="A105" s="0">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D105" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E105" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G105" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H105" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I105" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M105" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P105" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="Q105" s="0" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U105" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V105" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="W105" s="0" t="s">
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:23">
@@ -4771,51 +4777,87 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="E106" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G106" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H106" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I106" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M106" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="P106" s="0" t="s">
         <x:v>273</x:v>
       </x:c>
-      <x:c r="G106" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H106" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="Q106" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="U106" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="V106" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="W106" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:23">
       <x:c r="A107" s="0">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C107" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D107" s="0" t="s">
         <x:v>274</x:v>
       </x:c>
-      <x:c r="C107" s="0" t="s">
+      <x:c r="E107" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G107" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H107" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I107" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M107" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="P107" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Q107" s="0" t="s">
         <x:v>275</x:v>
       </x:c>
-      <x:c r="D107" s="0" t="s">
-        <x:v>276</x:v>
-      </x:c>
       <x:c r="U107" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V107" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="W107" s="0" t="s">
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:23">
@@ -4826,10 +4868,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D108" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="U108" s="0" t="s">
         <x:v>23</x:v>
@@ -4843,31 +4882,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E109" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="G109" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H109" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="I109" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M109" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P109" s="0" t="s">
-        <x:v>279</x:v>
       </x:c>
       <x:c r="Q109" s="0" t="s">
         <x:v>30</x:v>
@@ -4884,90 +4911,174 @@
     </x:row>
     <x:row r="110" spans="1:23">
       <x:c r="A110" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="U110" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="V110" s="0" t="s">
         <x:v>280</x:v>
-      </x:c>
-      <x:c r="E110" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G110" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H110" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I110" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M110" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P110" s="0" t="s">
-        <x:v>281</x:v>
-      </x:c>
-      <x:c r="Q110" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="U110" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="V110" s="0" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="W110" s="0" t="s">
-        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:23">
       <x:c r="A111" s="0">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="E111" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G111" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H111" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I111" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="M111" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P111" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="U111" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="V111" s="0" t="s">
         <x:v>284</x:v>
       </x:c>
-      <x:c r="Q111" s="0" t="s">
+    </x:row>
+    <x:row r="112" spans="1:23">
+      <x:c r="A112" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C112" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D112" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E112" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G112" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H112" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I112" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M112" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P112" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="Q112" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="U112" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="V112" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="W112" s="0" t="s">
         <x:v>283</x:v>
       </x:c>
-      <x:c r="U111" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="V111" s="0" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="W111" s="0" t="s">
-        <x:v>277</x:v>
+    </x:row>
+    <x:row r="113" spans="1:23">
+      <x:c r="A113" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D113" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="E113" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G113" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H113" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I113" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M113" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P113" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="Q113" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="U113" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="V113" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="W113" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:23">
+      <x:c r="A114" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C114" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D114" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="E114" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G114" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H114" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I114" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M114" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P114" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="Q114" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="U114" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="V114" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="W114" s="0" t="s">
+        <x:v>283</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
